--- a/data/IEEE_9/ieee18/ieee18_2050.xlsx
+++ b/data/IEEE_9/ieee18/ieee18_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE_9\ieee18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EE6EF3-5ABD-452E-8FBB-A3C09FB1F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93A2BFE-EE3A-46BF-B8D0-BBB71DF6EB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="2145" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14730" yWindow="6225" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>510</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.8816860199323395E-3</v>
+        <v>6.2722867331077982E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21564,55 +21564,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.1442187071408976</v>
+        <v>0.38140623571363252</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>22.668287464569808</v>
+        <v>7.556095821523269</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>59.14811191368748</v>
+        <v>19.716037304562491</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>73.813934351284615</v>
+        <v>24.604644783761536</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>81.985367102496099</v>
+        <v>27.328455700832031</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>83.505769406601445</v>
+        <v>27.835256468867151</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>81.97238730913412</v>
+        <v>27.324129103044704</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>69.992806071134666</v>
+        <v>23.33093535704489</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>46.253186431379717</v>
+        <v>15.417728810459906</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>11.300196580415104</v>
+        <v>3.7667321934717011</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>8.8324037670293495E-2</v>
+        <v>2.9441345890097833E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>7.6035475907470056E-3</v>
+        <v>2.5345158635823352E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>5.8178659595867236E-3</v>
+        <v>1.9392886531955746E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.8816860199323395E-3</v>
+        <v>6.2722867331077982E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21665,55 +21665,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.1442187071408976</v>
+        <v>0.38140623571363252</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>22.668287464569808</v>
+        <v>7.556095821523269</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>59.14811191368748</v>
+        <v>19.716037304562491</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>73.813934351284615</v>
+        <v>24.604644783761536</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>81.985367102496099</v>
+        <v>27.328455700832031</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>83.505769406601445</v>
+        <v>27.835256468867151</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>81.97238730913412</v>
+        <v>27.324129103044704</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>69.992806071134666</v>
+        <v>23.33093535704489</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>46.253186431379717</v>
+        <v>15.417728810459906</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>11.300196580415104</v>
+        <v>3.7667321934717011</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>8.8324037670293495E-2</v>
+        <v>2.9441345890097833E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>7.6035475907470056E-3</v>
+        <v>2.5345158635823352E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>5.8178659595867236E-3</v>
+        <v>1.9392886531955746E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22214,7 +22214,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>3.2704918032786883E-3</v>
+        <v>1.0901639344262294E-3</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22238,51 +22238,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.91680491803278674</v>
+        <v>0.30560163934426227</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>18.04485245901639</v>
+        <v>6.01495081967213</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>42.926065573770494</v>
+        <v>14.308688524590165</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>57.76569836065574</v>
+        <v>19.255232786885244</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>70.847527868852453</v>
+        <v>23.615842622950819</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>84.137016393442622</v>
+        <v>28.045672131147541</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>70.214188524590156</v>
+        <v>23.40472950819672</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>51.593385245901636</v>
+        <v>17.197795081967215</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>24.749980327868851</v>
+        <v>8.2499934426229498</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>5.1706475409836052</v>
+        <v>1.7235491803278684</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>3.3049180327868848E-2</v>
+        <v>1.1016393442622948E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.4459016393442622E-2</v>
+        <v>4.8196721311475404E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>3.2704918032786883E-3</v>
+        <v>1.0901639344262294E-3</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22339,51 +22339,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>0.91680491803278674</v>
+        <v>0.30560163934426227</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>18.04485245901639</v>
+        <v>6.01495081967213</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>42.926065573770494</v>
+        <v>14.308688524590165</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>57.76569836065574</v>
+        <v>19.255232786885244</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>70.847527868852453</v>
+        <v>23.615842622950819</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>84.137016393442622</v>
+        <v>28.045672131147541</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>70.214188524590156</v>
+        <v>23.40472950819672</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>51.593385245901636</v>
+        <v>17.197795081967215</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>24.749980327868851</v>
+        <v>8.2499934426229498</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>5.1706475409836052</v>
+        <v>1.7235491803278684</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>3.3049180327868848E-2</v>
+        <v>1.1016393442622948E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.4459016393442622E-2</v>
+        <v>4.8196721311475404E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22912,47 +22912,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.99126803340926328</v>
+        <v>0.33042267780308776</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>21.645387243735762</v>
+        <v>7.2151290812452542</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>50.394552012148814</v>
+        <v>16.798184004049606</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>72.674031890660601</v>
+        <v>24.224677296886867</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>74.813762338648417</v>
+        <v>24.937920779549472</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>71.03684510250568</v>
+        <v>23.678948367501892</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>55.617046317387995</v>
+        <v>18.539015439129333</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>42.842551252847372</v>
+        <v>14.280850417615792</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>18.178739559605162</v>
+        <v>6.0595798532017211</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>3.2093963553530749</v>
+        <v>1.0697987851176916</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>5.2088078967350042E-3</v>
+        <v>1.7362692989116679E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -23013,47 +23013,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>0.99126803340926328</v>
+        <v>0.33042267780308776</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>21.645387243735762</v>
+        <v>7.2151290812452542</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>50.394552012148814</v>
+        <v>16.798184004049606</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>72.674031890660601</v>
+        <v>24.224677296886867</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>74.813762338648417</v>
+        <v>24.937920779549472</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>71.03684510250568</v>
+        <v>23.678948367501892</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>55.617046317387995</v>
+        <v>18.539015439129333</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>42.842551252847372</v>
+        <v>14.280850417615792</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>18.178739559605162</v>
+        <v>6.0595798532017211</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>3.2093963553530749</v>
+        <v>1.0697987851176916</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>5.2088078967350042E-3</v>
+        <v>1.7362692989116679E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24752,7 +24752,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24809,7 +24809,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -24820,7 +24820,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -38719,7 +38719,7 @@
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.3709243851147482E-3</v>
+        <v>7.9030812837158266E-4</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38739,55 +38739,55 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.3845046356404862</v>
+        <v>0.4615015452134954</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>28.788725080003651</v>
+        <v>9.5962416933345516</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>76.301064368656839</v>
+        <v>25.433688122885613</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>95.958114656670006</v>
+        <v>31.986038218890002</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>99.202294194020268</v>
+        <v>33.067431398006754</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>108.55750022858187</v>
+        <v>36.185833409527291</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>105.74437962878301</v>
+        <v>35.248126542927672</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>88.890863710341023</v>
+        <v>29.630287903447009</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>56.891419310597051</v>
+        <v>18.963806436865685</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>14.238247691323028</v>
+        <v>4.7460825637743431</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0.11128828746456981</v>
+        <v>3.7096095821523276E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>9.4283990125262878E-3</v>
+        <v>3.1427996708420958E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>7.0396178110999361E-3</v>
+        <v>2.3465392703666452E-3</v>
       </c>
       <c r="V6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -38820,7 +38820,7 @@
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.3709243851147482E-3</v>
+        <v>7.9030812837158266E-4</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -38840,55 +38840,55 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.3845046356404862</v>
+        <v>0.4615015452134954</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>28.788725080003651</v>
+        <v>9.5962416933345516</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>76.301064368656839</v>
+        <v>25.433688122885613</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>95.958114656670006</v>
+        <v>31.986038218890002</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>99.202294194020268</v>
+        <v>33.067431398006754</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>108.55750022858187</v>
+        <v>36.185833409527291</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>105.74437962878301</v>
+        <v>35.248126542927672</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>88.890863710341023</v>
+        <v>29.630287903447009</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>56.891419310597051</v>
+        <v>18.963806436865685</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>14.238247691323028</v>
+        <v>4.7460825637743431</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>0.11128828746456981</v>
+        <v>3.7096095821523276E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>9.4283990125262878E-3</v>
+        <v>3.1427996708420958E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>7.0396178110999361E-3</v>
+        <v>2.3465392703666452E-3</v>
       </c>
       <c r="V7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -39470,7 +39470,7 @@
       </c>
       <c r="C6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>4.1535245901639347E-3</v>
+        <v>1.3845081967213116E-3</v>
       </c>
       <c r="D6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39494,51 +39494,51 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.1918463934426229</v>
+        <v>0.39728213114754096</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>23.277859672131147</v>
+        <v>7.7592865573770489</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>55.37462459016394</v>
+        <v>18.458208196721312</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>73.362436918032785</v>
+        <v>24.454145639344262</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>92.101786229508193</v>
+        <v>30.700595409836065</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>109.3781213114754</v>
+        <v>36.459373770491801</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>91.278445081967206</v>
+        <v>30.426148360655738</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>62.943930000000002</v>
+        <v>20.981310000000001</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>31.432475016393443</v>
+        <v>10.477491672131148</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>6.6184288524590151</v>
+        <v>2.2061429508196717</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.9989508196721299E-2</v>
+        <v>1.3329836065573766E-2</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.7639999999999999E-2</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="U6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="C7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>4.1535245901639347E-3</v>
+        <v>1.3845081967213116E-3</v>
       </c>
       <c r="D7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -39595,51 +39595,51 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.1918463934426229</v>
+        <v>0.39728213114754096</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>23.277859672131147</v>
+        <v>7.7592865573770489</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>55.37462459016394</v>
+        <v>18.458208196721312</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>73.362436918032785</v>
+        <v>24.454145639344262</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>92.101786229508193</v>
+        <v>30.700595409836065</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>109.3781213114754</v>
+        <v>36.459373770491801</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>91.278445081967206</v>
+        <v>30.426148360655738</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>62.943930000000002</v>
+        <v>20.981310000000001</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>31.432475016393443</v>
+        <v>10.477491672131148</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>6.6184288524590151</v>
+        <v>2.2061429508196717</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>3.9989508196721299E-2</v>
+        <v>1.3329836065573766E-2</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.7639999999999999E-2</v>
+        <v>5.8799999999999998E-3</v>
       </c>
       <c r="U7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -40168,47 +40168,47 @@
       </c>
       <c r="I6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.2291723614274865</v>
+        <v>0.40972412047582885</v>
       </c>
       <c r="J6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>26.623826309794985</v>
+        <v>8.8746087699316618</v>
       </c>
       <c r="K6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>62.489244495064526</v>
+        <v>20.82974816502151</v>
       </c>
       <c r="L6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>92.296020501138955</v>
+        <v>30.765340167046318</v>
       </c>
       <c r="M6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>96.509753416856455</v>
+        <v>32.169917805618823</v>
       </c>
       <c r="N6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>85.244214123006813</v>
+        <v>28.41473804100227</v>
       </c>
       <c r="O6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>68.40896697038724</v>
+        <v>22.80298899012908</v>
       </c>
       <c r="P6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>54.838465603644643</v>
+        <v>18.279488534548214</v>
       </c>
       <c r="Q6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>23.45057403189066</v>
+        <v>7.8168580106302201</v>
       </c>
       <c r="R6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>4.1401212984054663</v>
+        <v>1.3800404328018221</v>
       </c>
       <c r="S6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>6.7714502657555053E-3</v>
+        <v>2.2571500885851686E-3</v>
       </c>
       <c r="T6" s="7">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -40269,47 +40269,47 @@
       </c>
       <c r="I7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.2291723614274865</v>
+        <v>0.40972412047582885</v>
       </c>
       <c r="J7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>26.623826309794985</v>
+        <v>8.8746087699316618</v>
       </c>
       <c r="K7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>62.489244495064526</v>
+        <v>20.82974816502151</v>
       </c>
       <c r="L7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>92.296020501138955</v>
+        <v>30.765340167046318</v>
       </c>
       <c r="M7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>96.509753416856455</v>
+        <v>32.169917805618823</v>
       </c>
       <c r="N7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>85.244214123006813</v>
+        <v>28.41473804100227</v>
       </c>
       <c r="O7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>68.40896697038724</v>
+        <v>22.80298899012908</v>
       </c>
       <c r="P7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>54.838465603644643</v>
+        <v>18.279488534548214</v>
       </c>
       <c r="Q7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>23.45057403189066</v>
+        <v>7.8168580106302201</v>
       </c>
       <c r="R7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>4.1401212984054663</v>
+        <v>1.3800404328018221</v>
       </c>
       <c r="S7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>6.7714502657555053E-3</v>
+        <v>2.2571500885851686E-3</v>
       </c>
       <c r="T7" s="7">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
